--- a/มทร_ล้านนา_เอกสาร/ข้อมูลบุคลากรสายวิชาการ เชียงราย.xlsx
+++ b/มทร_ล้านนา_เอกสาร/ข้อมูลบุคลากรสายวิชาการ เชียงราย.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\มทร_ล้านนา_เอกสาร\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C184A014-1588-4B1A-835E-95AEB0CEF1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D958ED09-80F2-4D0C-8E81-4228A76B971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="เชียงราย" sheetId="21" r:id="rId1"/>
@@ -3384,27 +3384,27 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="73" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C203" sqref="C203"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.90625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.90625" style="95" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.36328125" style="95" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" style="95" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="95" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.08984375" style="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27">
@@ -4155,24 +4155,24 @@
       <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.36328125" style="95" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="95" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.08984375" style="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27">
@@ -4193,7 +4193,7 @@
       <c r="M1" s="152"/>
       <c r="N1" s="153"/>
     </row>
-    <row r="2" spans="1:14" ht="21">
+    <row r="2" spans="1:14" ht="21.75">
       <c r="A2" s="88" t="s">
         <v>383</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21">
+    <row r="3" spans="1:14" ht="21.75">
       <c r="A3" s="89"/>
       <c r="B3" s="91"/>
       <c r="C3" s="91"/>
@@ -5445,24 +5445,24 @@
       <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.36328125" style="95" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="95" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.08984375" style="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27">
@@ -5483,7 +5483,7 @@
       <c r="M1" s="152"/>
       <c r="N1" s="153"/>
     </row>
-    <row r="2" spans="1:14" ht="21">
+    <row r="2" spans="1:14" ht="21.75">
       <c r="A2" s="88" t="s">
         <v>383</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21">
+    <row r="3" spans="1:14" ht="21.75">
       <c r="A3" s="89"/>
       <c r="B3" s="91"/>
       <c r="C3" s="91"/>
@@ -7744,24 +7744,24 @@
       <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.36328125" style="95" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="95" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.08984375" style="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27">
@@ -7782,7 +7782,7 @@
       <c r="M1" s="152"/>
       <c r="N1" s="153"/>
     </row>
-    <row r="2" spans="1:14" ht="21">
+    <row r="2" spans="1:14" ht="21.75">
       <c r="A2" s="88" t="s">
         <v>383</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21">
+    <row r="3" spans="1:14" ht="21.75">
       <c r="A3" s="89"/>
       <c r="B3" s="91"/>
       <c r="C3" s="91"/>
@@ -9379,24 +9379,24 @@
       <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.36328125" style="95" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="95" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.08984375" style="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27">
@@ -9417,7 +9417,7 @@
       <c r="M1" s="152"/>
       <c r="N1" s="153"/>
     </row>
-    <row r="2" spans="1:14" ht="21">
+    <row r="2" spans="1:14" ht="21.75">
       <c r="A2" s="88" t="s">
         <v>383</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21">
+    <row r="3" spans="1:14" ht="21.75">
       <c r="A3" s="89"/>
       <c r="B3" s="91"/>
       <c r="C3" s="91"/>
@@ -11151,24 +11151,24 @@
       <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.36328125" style="95" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="95" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.08984375" style="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27">
@@ -11189,7 +11189,7 @@
       <c r="M1" s="152"/>
       <c r="N1" s="153"/>
     </row>
-    <row r="2" spans="1:14" ht="21">
+    <row r="2" spans="1:14" ht="21.75">
       <c r="A2" s="88" t="s">
         <v>383</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21">
+    <row r="3" spans="1:14" ht="21.75">
       <c r="A3" s="89"/>
       <c r="B3" s="91"/>
       <c r="C3" s="91"/>

--- a/มทร_ล้านนา_เอกสาร/ข้อมูลบุคลากรสายวิชาการ เชียงราย.xlsx
+++ b/มทร_ล้านนา_เอกสาร/ข้อมูลบุคลากรสายวิชาการ เชียงราย.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\มทร_ล้านนา_เอกสาร\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D958ED09-80F2-4D0C-8E81-4228A76B971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A86390C-A4ED-4993-98BC-73A9F8D5EF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3384,7 +3384,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="73" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C203" sqref="C203"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24"/>
@@ -4013,7 +4013,9 @@
       <c r="D19" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="139"/>
+      <c r="E19" s="139">
+        <v>561001</v>
+      </c>
       <c r="F19" s="107" t="s">
         <v>498</v>
       </c>
@@ -4050,14 +4052,18 @@
       <c r="D20" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="117"/>
+      <c r="E20" s="117">
+        <v>536</v>
+      </c>
       <c r="F20" s="116" t="s">
         <v>497</v>
       </c>
-      <c r="G20" s="116"/>
+      <c r="G20" s="116">
+        <v>50</v>
+      </c>
       <c r="H20" s="119">
         <f t="shared" si="0"/>
-        <v>2628</v>
+        <v>2578</v>
       </c>
       <c r="I20" s="117" t="s">
         <v>34</v>

--- a/มทร_ล้านนา_เอกสาร/ข้อมูลบุคลากรสายวิชาการ เชียงราย.xlsx
+++ b/มทร_ล้านนา_เอกสาร/ข้อมูลบุคลากรสายวิชาการ เชียงราย.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\มทร_ล้านนา_เอกสาร\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A86390C-A4ED-4993-98BC-73A9F8D5EF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E171E6-9B16-4144-83E0-871A78531FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="เชียงราย" sheetId="21" r:id="rId1"/>
@@ -3384,7 +3384,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="73" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C203" sqref="C203"/>
-      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomLeft" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24"/>
@@ -4019,10 +4019,12 @@
       <c r="F19" s="107" t="s">
         <v>498</v>
       </c>
-      <c r="G19" s="107"/>
+      <c r="G19" s="107">
+        <v>48</v>
+      </c>
       <c r="H19" s="119">
         <f t="shared" si="0"/>
-        <v>2628</v>
+        <v>2580</v>
       </c>
       <c r="I19" s="108" t="s">
         <v>34</v>
